--- a/worker-service/templates/template-tree-ad.xlsx
+++ b/worker-service/templates/template-tree-ad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceBuild\github\excel-worker\worker-service\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B8BBEE-3697-4153-8F91-3CD655E9E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256D351-8E07-4238-9DE7-4621E6DAFDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28785" yWindow="120" windowWidth="11940" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -1145,17 +1145,11 @@
     <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,6 +1159,12 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1539,53 +1539,53 @@
       <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
@@ -1611,18 +1611,18 @@
       <c r="C8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1635,18 +1635,18 @@
       <c r="C9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -1679,15 +1679,15 @@
       <c r="E11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="25"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -1701,15 +1701,15 @@
       <c r="C12" s="46"/>
       <c r="D12" s="39"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="25"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -1743,15 +1743,15 @@
       <c r="E14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59" t="s">
+      <c r="G14" s="56"/>
+      <c r="H14" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="25"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -1765,15 +1765,15 @@
       <c r="C15" s="46"/>
       <c r="D15" s="39"/>
       <c r="E15" s="36"/>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="25"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
@@ -1826,16 +1826,16 @@
       <c r="F18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54" t="s">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -1850,16 +1850,16 @@
       <c r="F19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57" t="s">
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -1873,15 +1873,15 @@
       <c r="E20" s="22"/>
       <c r="F20" s="50"/>
       <c r="G20" s="49"/>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
+      <c r="I20" s="59"/>
+      <c r="J20" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -1895,15 +1895,15 @@
       <c r="E21" s="22"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="57" t="s">
+      <c r="I21" s="58"/>
+      <c r="J21" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -1948,16 +1948,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="K5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="F6:J6"/>
@@ -1974,6 +1964,16 @@
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
